--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Saa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Saa1</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Saa1</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +543,10 @@
         <v>0.015001</v>
       </c>
       <c r="I2">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J2">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>3.327523</v>
       </c>
       <c r="O2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q2">
         <v>0.005546241391444444</v>
       </c>
       <c r="R2">
-        <v>0.04991617252299999</v>
+        <v>0.049916172523</v>
       </c>
       <c r="S2">
-        <v>0.01436027084247255</v>
+        <v>0.02567304248374319</v>
       </c>
       <c r="T2">
-        <v>0.01436027084247255</v>
+        <v>0.02567304248374318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0.015001</v>
       </c>
       <c r="I3">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J3">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.402069333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N3">
-        <v>13.206208</v>
+        <v>19.01469</v>
       </c>
       <c r="O3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q3">
-        <v>0.02201181402311111</v>
+        <v>0.03169326274333333</v>
       </c>
       <c r="R3">
-        <v>0.198106326208</v>
+        <v>0.2852393646900001</v>
       </c>
       <c r="S3">
-        <v>0.05699276118663275</v>
+        <v>0.1467052050985694</v>
       </c>
       <c r="T3">
-        <v>0.05699276118663275</v>
+        <v>0.1467052050985694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,45 +667,45 @@
         <v>0.015001</v>
       </c>
       <c r="I4">
-        <v>0.2368965462786033</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J4">
-        <v>0.2368965462786034</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.78643133333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N4">
-        <v>38.35929400000001</v>
+        <v>0.274778</v>
       </c>
       <c r="O4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q4">
-        <v>0.06393641881044444</v>
+        <v>0.0004579938642222222</v>
       </c>
       <c r="R4">
-        <v>0.5754277692940001</v>
+        <v>0.004121944778</v>
       </c>
       <c r="S4">
-        <v>0.165543514249498</v>
+        <v>0.002120011572451336</v>
       </c>
       <c r="T4">
-        <v>0.1655435142494981</v>
+        <v>0.002120011572451336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.004111666666666667</v>
+        <v>0.005000333333333333</v>
       </c>
       <c r="H5">
-        <v>0.012335</v>
+        <v>0.015001</v>
       </c>
       <c r="I5">
-        <v>0.1947949402270897</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="J5">
-        <v>0.1947949402270897</v>
+        <v>0.2140584197833873</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.109174333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N5">
-        <v>3.327523</v>
+        <v>5.127454</v>
       </c>
       <c r="O5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q5">
-        <v>0.004560555133888889</v>
+        <v>0.008546326383777779</v>
       </c>
       <c r="R5">
-        <v>0.041044996205</v>
+        <v>0.07691693745400001</v>
       </c>
       <c r="S5">
-        <v>0.01180814217998127</v>
+        <v>0.03956016062862345</v>
       </c>
       <c r="T5">
-        <v>0.01180814217998126</v>
+        <v>0.03956016062862344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.000593</v>
+      </c>
+      <c r="H6">
+        <v>0.001779</v>
+      </c>
+      <c r="I6">
+        <v>0.02538563621056237</v>
+      </c>
+      <c r="J6">
+        <v>0.02538563621056237</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.004111666666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.012335</v>
-      </c>
-      <c r="I6">
-        <v>0.1947949402270897</v>
-      </c>
-      <c r="J6">
-        <v>0.1947949402270897</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>4.402069333333333</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N6">
-        <v>13.206208</v>
+        <v>3.327523</v>
       </c>
       <c r="O6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q6">
-        <v>0.01809984174222222</v>
+        <v>0.0006577403796666666</v>
       </c>
       <c r="R6">
-        <v>0.16289857568</v>
+        <v>0.005919663417</v>
       </c>
       <c r="S6">
-        <v>0.04686392302093961</v>
+        <v>0.003044619863914348</v>
       </c>
       <c r="T6">
-        <v>0.04686392302093961</v>
+        <v>0.003044619863914347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.004111666666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H7">
-        <v>0.012335</v>
+        <v>0.001779</v>
       </c>
       <c r="I7">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J7">
-        <v>0.1947949402270897</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.78643133333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N7">
-        <v>38.35929400000001</v>
+        <v>19.01469</v>
       </c>
       <c r="O7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q7">
-        <v>0.0525735434988889</v>
+        <v>0.00375857039</v>
       </c>
       <c r="R7">
-        <v>0.4731618914900001</v>
+        <v>0.03382713351</v>
       </c>
       <c r="S7">
-        <v>0.1361228750261688</v>
+        <v>0.01739807745286014</v>
       </c>
       <c r="T7">
-        <v>0.1361228750261688</v>
+        <v>0.01739807745286014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,51 +909,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01199566666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H8">
-        <v>0.035987</v>
+        <v>0.001779</v>
       </c>
       <c r="I8">
-        <v>0.568308513494307</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J8">
-        <v>0.568308513494307</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.109174333333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N8">
-        <v>3.327523</v>
+        <v>0.274778</v>
       </c>
       <c r="O8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q8">
-        <v>0.01330528557788889</v>
+        <v>5.431445133333333E-05</v>
       </c>
       <c r="R8">
-        <v>0.119747570201</v>
+        <v>0.0004888300620000001</v>
       </c>
       <c r="S8">
-        <v>0.03444990779335109</v>
+        <v>0.0002514166113853028</v>
       </c>
       <c r="T8">
-        <v>0.03444990779335109</v>
+        <v>0.0002514166113853027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01199566666666667</v>
+        <v>0.000593</v>
       </c>
       <c r="H9">
-        <v>0.035987</v>
+        <v>0.001779</v>
       </c>
       <c r="I9">
-        <v>0.568308513494307</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="J9">
-        <v>0.568308513494307</v>
+        <v>0.02538563621056237</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.402069333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N9">
-        <v>13.206208</v>
+        <v>5.127454</v>
       </c>
       <c r="O9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q9">
-        <v>0.05280575636622222</v>
+        <v>0.001013526740666667</v>
       </c>
       <c r="R9">
-        <v>0.475251807296</v>
+        <v>0.009121740666</v>
       </c>
       <c r="S9">
-        <v>0.1367241181803449</v>
+        <v>0.004691522282402581</v>
       </c>
       <c r="T9">
-        <v>0.1367241181803448</v>
+        <v>0.00469152228240258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.01776633333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.053299</v>
+      </c>
+      <c r="I10">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="J10">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.327523</v>
+      </c>
+      <c r="O10">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="P10">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="Q10">
+        <v>0.01970596093077778</v>
+      </c>
+      <c r="R10">
+        <v>0.177353648377</v>
+      </c>
+      <c r="S10">
+        <v>0.09121708495040519</v>
+      </c>
+      <c r="T10">
+        <v>0.09121708495040518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.01776633333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.053299</v>
+      </c>
+      <c r="I11">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="J11">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.33823</v>
+      </c>
+      <c r="N11">
+        <v>19.01469</v>
+      </c>
+      <c r="O11">
+        <v>0.6853512477903235</v>
+      </c>
+      <c r="P11">
+        <v>0.6853512477903234</v>
+      </c>
+      <c r="Q11">
+        <v>0.1126071069233333</v>
+      </c>
+      <c r="R11">
+        <v>1.01346396231</v>
+      </c>
+      <c r="S11">
+        <v>0.5212479652388941</v>
+      </c>
+      <c r="T11">
+        <v>0.5212479652388939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.01776633333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.053299</v>
+      </c>
+      <c r="I12">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="J12">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.01199566666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.035987</v>
-      </c>
-      <c r="I10">
-        <v>0.568308513494307</v>
-      </c>
-      <c r="J10">
-        <v>0.568308513494307</v>
-      </c>
-      <c r="K10">
+      <c r="M12">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.274778</v>
+      </c>
+      <c r="O12">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P12">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q12">
+        <v>0.001627265846888889</v>
+      </c>
+      <c r="R12">
+        <v>0.014645392622</v>
+      </c>
+      <c r="S12">
+        <v>0.00753246428905298</v>
+      </c>
+      <c r="T12">
+        <v>0.007532464289052979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>12.78643133333333</v>
-      </c>
-      <c r="N10">
-        <v>38.35929400000001</v>
-      </c>
-      <c r="O10">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="P10">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="Q10">
-        <v>0.1533817681308889</v>
-      </c>
-      <c r="R10">
-        <v>1.380435913178</v>
-      </c>
-      <c r="S10">
-        <v>0.397134487520611</v>
-      </c>
-      <c r="T10">
-        <v>0.397134487520611</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.01776633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.053299</v>
+      </c>
+      <c r="I13">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="J13">
+        <v>0.7605559440060503</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.127454</v>
+      </c>
+      <c r="O13">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P13">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q13">
+        <v>0.03036535230511111</v>
+      </c>
+      <c r="R13">
+        <v>0.273288170746</v>
+      </c>
+      <c r="S13">
+        <v>0.1405584295276982</v>
+      </c>
+      <c r="T13">
+        <v>0.1405584295276982</v>
       </c>
     </row>
   </sheetData>
